--- a/Wildberries/WB_Fakers.xlsx
+++ b/Wildberries/WB_Fakers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Wildberries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F13885-FD8A-4F4E-B0CB-573AAB749878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28F9B55-9826-4474-8348-8B79CED68E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="846" firstSheet="14" activeTab="20" xr2:uid="{6FEB75CA-B673-4011-9DD5-AB3BD64A6505}"/>
   </bookViews>
@@ -34,9 +34,10 @@
     <sheet name="ИП Пашкович А. Н." sheetId="27" r:id="rId19"/>
     <sheet name="ИП Морозова Г. А." sheetId="29" r:id="rId20"/>
     <sheet name="ИП Волянский Владислав Игоревич" sheetId="28" r:id="rId21"/>
+    <sheet name="ИП Венков Д. И." sheetId="30" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$D$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Main!$A$1:$D$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'ИП Волянский Владислав Игоревич'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'ИП Иванцова Ольга Николаевна'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'ИП Коркина В. О.'!$A$1:$C$1</definedName>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="312">
   <si>
     <t>Сссылка</t>
   </si>
@@ -983,6 +984,24 @@
   </si>
   <si>
     <t>https://www.wildberries.ru/catalog/66547197/detail.aspx?targetUrl=EX</t>
+  </si>
+  <si>
+    <t>ИП Венков Д. И.</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/66220275/detail.aspx?targetUrl=EX</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/70680302/detail.aspx?targetUrl=EX</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/catalog/66220703/detail.aspx?targetUrl=EX</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/seller/636050</t>
+  </si>
+  <si>
+    <t>https://www.wildberries.ru/seller/619632</t>
   </si>
 </sst>
 </file>
@@ -1704,10 +1723,10 @@
   <sheetPr codeName="Лист1" filterMode="1">
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,7 +1803,7 @@
         <v>39</v>
       </c>
       <c r="H3" s="21" t="str">
-        <f t="shared" ref="H3:H21" si="0">B3&amp;", ОГРН: "&amp;C3</f>
+        <f t="shared" ref="H3:H22" si="0">B3&amp;", ОГРН: "&amp;C3</f>
         <v>ИП Белхороев А. И., ОГРН: 321060000002919</v>
       </c>
       <c r="I3" s="22" t="s">
@@ -2077,7 +2096,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>287</v>
@@ -2094,22 +2113,41 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>310</v>
+      </c>
       <c r="B21" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C21" s="14">
+        <v>322463200006676</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="H21" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>ИП Венков Д. И., ОГРН: 322463200006676</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C22" s="14">
         <v>321774600003361</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="21" t="str">
+      <c r="D22" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="21" t="str">
         <f t="shared" si="0"/>
         <v>ИП Волянский Владислав Игоревич, ОГРН: 321774600003361</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D21" xr:uid="{E6D0ABBC-BC3D-4246-A7E8-C15A9036060F}">
+  <autoFilter ref="A1:D22" xr:uid="{E6D0ABBC-BC3D-4246-A7E8-C15A9036060F}">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="Goorin"/>
@@ -2153,7 +2191,7 @@
     <hyperlink ref="B17" location="'Генов Денис Александрович'!A1" display="Генов Денис Александрович" xr:uid="{7A3A7238-BE7F-4635-95A5-F1C9AB0E6F8A}"/>
     <hyperlink ref="B18" location="'ИП Сулимова ОА'!A1" display="ИП Сулимова ОА" xr:uid="{02AD98C6-88F9-4FED-83A0-88F8BFFB3F9F}"/>
     <hyperlink ref="B19" location="'ИП Пашкович А. Н.'!A1" display="ИП Пашкович А. Н." xr:uid="{4747099D-02BB-4EC7-8640-E2C427B87D8D}"/>
-    <hyperlink ref="B21" location="'ИП Волянский Владислав Игоревич'!A1" display="ИП Волянский Владислав Игоревич" xr:uid="{CDBC719E-CDBD-4A20-8C5E-219ED62C0B24}"/>
+    <hyperlink ref="B22" location="'ИП Волянский Владислав Игоревич'!A1" display="ИП Волянский Владислав Игоревич" xr:uid="{CDBC719E-CDBD-4A20-8C5E-219ED62C0B24}"/>
     <hyperlink ref="A6" r:id="rId11" xr:uid="{A947A4B1-1F94-4CC6-9444-CCBB0A494D45}"/>
     <hyperlink ref="A2" r:id="rId12" xr:uid="{B43A8F0E-4D5B-4D34-A128-D5D39813A7C1}"/>
     <hyperlink ref="A3" r:id="rId13" xr:uid="{32C487A6-2EED-4122-A9EA-811F6B318723}"/>
@@ -2163,9 +2201,11 @@
     <hyperlink ref="A17" r:id="rId17" xr:uid="{17706D6B-C79A-49E6-9248-80FD4D6BB49B}"/>
     <hyperlink ref="B4" location="'Потапов Алексей Вениаминович'!A1" display="ИП Потапов А. В." xr:uid="{B19BFD1D-46C3-450A-9BEB-18107B815B4D}"/>
     <hyperlink ref="B20" location="'ИП Морозова Г. А.'!A1" display="ИП Морозова Г. А." xr:uid="{BF125CCB-EB72-403F-A1B7-B04650D62EB4}"/>
+    <hyperlink ref="B21" location="'ИП Венков Д. И.'!A1" display="ИП Венков Д. И." xr:uid="{94734BC3-3751-4007-B7F2-7F2D4C2776A7}"/>
+    <hyperlink ref="A22" r:id="rId18" xr:uid="{F4AB5293-1216-46F3-A727-12C45C1016B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -2175,7 +2215,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,6 +2358,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{05AC3124-2FD3-4D3D-939D-13B8E9361D7D}"/>
     <hyperlink ref="A6" r:id="rId2" xr:uid="{31CF104F-D492-4133-820F-9FEE7303842D}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{12F524E6-E506-4A25-92DC-2306755E7ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2329,7 +2370,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,6 +2510,9 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B33096B7-AD72-4E63-AEEE-EC2376033FD7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2478,7 +2522,9 @@
   <sheetPr codeName="Лист14"/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2677,6 +2723,13 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A0B5F8A2-0D4C-4B8F-BEA2-1CC045DBAA58}"/>
+    <hyperlink ref="A6" r:id="rId2" xr:uid="{4B166195-7311-4DD0-977A-D7B437DD95EE}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{B91220EF-0572-4B7B-9F12-857C573051EA}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{014901C7-EC48-487A-84BD-F893DEF640E3}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{7C64F79C-579C-4A0C-8ADA-7E728B65E2DB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2686,7 +2739,9 @@
   <sheetPr codeName="Лист15"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2803,6 +2858,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1" xr:uid="{54FA8EB0-7354-4885-B367-D304802E163A}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{8D7502F9-DAEF-48A1-8240-40239FA0EC88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2814,7 +2870,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,6 +3226,9 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{618EB8D3-BDD2-49E9-83A9-7E0A931D145E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3848,7 +3907,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4113,7 +4172,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4352,7 +4411,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{B04461F7-68DA-4E88-9704-173E9D73C4C8}">
@@ -4361,22 +4420,8 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.wildberries.ru/catalog/70032628/detail.aspx?targetUrl=SP" xr:uid="{AB4E113A-CD03-4612-99C0-F0920E1E1FEB}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.wildberries.ru/catalog/70689710/detail.aspx?targetUrl=SP" xr:uid="{67AACC84-FF3D-4C49-BFF3-68224037AB24}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.wildberries.ru/catalog/70689708/detail.aspx?targetUrl=SP" xr:uid="{E4A77502-12A5-4907-9CBC-7758749BF64F}"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.wildberries.ru/catalog/70689709/detail.aspx?targetUrl=SP" xr:uid="{AF953E8B-1267-4F26-9772-5063D7FBB4A1}"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.wildberries.ru/catalog/70689711/detail.aspx?targetUrl=SP" xr:uid="{2C9CE29F-4511-42D6-9892-F70B44657621}"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.wildberries.ru/catalog/70689712/detail.aspx?targetUrl=SP" xr:uid="{3753593E-A9C7-4CC3-A1B4-F64D9C5ECF46}"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.wildberries.ru/catalog/70689713/detail.aspx?targetUrl=SP" xr:uid="{521D63FE-9D33-44C3-9285-BB35EAE6A1B5}"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.wildberries.ru/catalog/70689714/detail.aspx?targetUrl=SP" xr:uid="{C296B95E-16F4-4CD2-B9C5-8EC5216CE94E}"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.wildberries.ru/catalog/70689715/detail.aspx?targetUrl=SP" xr:uid="{3751E03D-53B1-4920-8C80-974493D67B64}"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.wildberries.ru/catalog/70689716/detail.aspx?targetUrl=SP" xr:uid="{5A451FBC-CD6C-44DE-99DB-BBBD97A4627C}"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.wildberries.ru/catalog/70689712/detail.aspx?targetUrl=SP" xr:uid="{2899B132-C4FB-422A-B932-269B2BCD832A}"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.wildberries.ru/catalog/70689713/detail.aspx?targetUrl=SP" xr:uid="{671C22A6-E637-48BC-A11C-C2733DBDDEBC}"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.wildberries.ru/catalog/70689714/detail.aspx?targetUrl=SP" xr:uid="{BBBA86F0-45DD-4358-8E3B-F1CF72A4691E}"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.wildberries.ru/catalog/70689715/detail.aspx?targetUrl=SP" xr:uid="{569FCEE6-42C7-4707-A02C-14D36C30D517}"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.wildberries.ru/catalog/70689716/detail.aspx?targetUrl=SP" xr:uid="{221E7773-ACE7-41E4-B9E8-37CBD8912982}"/>
-    <hyperlink ref="A17:A18" r:id="rId16" display="https://www.wildberries.ru/catalog/70689716/detail.aspx?targetUrl=SP" xr:uid="{BB7C070E-9221-4344-82A4-870F60F2AAE0}"/>
-    <hyperlink ref="A19" r:id="rId17" display="https://www.wildberries.ru/catalog/70689716/detail.aspx?targetUrl=SP" xr:uid="{B2E98E59-78B1-4F99-ADA4-2B3B4007469D}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{A8DE2B52-AA6F-4CD7-90FD-E7C98E658E1A}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{98B31661-D505-43B1-9352-8465C818E674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4387,9 +4432,7 @@
   <sheetPr codeName="Лист21"/>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4784,6 +4827,94 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D5245ABF-2253-44EA-A797-9E4F3D18AAA6}"/>
     <hyperlink ref="A31" r:id="rId2" xr:uid="{1D99E511-0A58-45BD-B467-58400C14E66D}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{161F96F3-8FC0-4761-A40B-B40D7779EAF4}"/>
+    <hyperlink ref="A29" r:id="rId4" xr:uid="{4150EB4D-83D2-40B7-97C1-C3AED87D2F68}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{8ED2A9EF-1DFD-48F2-8D92-DE9889545F6E}"/>
+    <hyperlink ref="A9" r:id="rId6" xr:uid="{5994E557-64FC-4771-A41C-50C8494F2A25}"/>
+    <hyperlink ref="A17" r:id="rId7" xr:uid="{0EB6D512-487B-4FEB-98F7-DE16851AD8F9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B39CD87-0009-4CEB-A2D8-0329E5B58099}">
+  <sheetPr codeName="Лист22"/>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f>MID($A2,36,8)</f>
+        <v>70680302</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="2" t="str">
+        <f>MID($A3,36,8)</f>
+        <v>66220275</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>MID($A4,36,8)</f>
+        <v>66220703</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition descending="1" ref="C1:C4"/>
+  </sortState>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{497B1987-182F-4BD2-8E16-5FC259519CAF}">
+      <formula1>Бренды</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{98B9B59A-ECEE-4606-971E-3637B0F74035}"/>
+    <hyperlink ref="A2" r:id="rId2" xr:uid="{AA3A988D-545B-47EE-9963-AFB3933E3070}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{A08B9F74-CBC0-48DA-BFEB-D2471B0426CB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4795,7 +4926,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,9 +5003,7 @@
   <sheetPr codeName="Лист6"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5035,8 +5164,8 @@
   <sheetPr codeName="Лист8"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5498,6 +5627,7 @@
   <hyperlinks>
     <hyperlink ref="A32" r:id="rId1" xr:uid="{79E9D57D-9585-463A-8045-90A161103787}"/>
     <hyperlink ref="A11" r:id="rId2" xr:uid="{D1086066-CF93-419E-95EE-2A8D9BBC9C07}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{6B33EE9C-9F0D-4431-978D-8D067C2FE584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5509,7 +5639,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5752,6 +5882,9 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{18D36C87-DC9C-4EA2-985A-ED3F33ED19C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5762,7 +5895,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5969,6 +6102,9 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0CA1DC1C-AFB3-4E0D-8FD0-CC4B12B18310}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5978,7 +6114,9 @@
   <sheetPr codeName="Лист11"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6100,6 +6238,9 @@
       <formula1>Бренды</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{447B7802-299A-429A-8F11-905704C88A39}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>